--- a/Datos/Database by set/Set with text box/Xlsx sets/DCI Legend Membership (PLGM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/DCI Legend Membership (PLGM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,56 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Counterspell</t>
+          <t>('Counterspell', ['{U}{U}', 'Instant', 'Counter target spell.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Incinerate</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Incinerate deals 3 damage to any target. A creature dealt damage this way can’t be regenerated this turn.</t>
+          <t>('Incinerate', ['{1}{R}', 'Instant', 'Incinerate deals 3 damage to any target. A creature dealt damage this way can’t be regenerated this turn.'])</t>
         </is>
       </c>
     </row>
